--- a/Ethiopia Workspace/Code and Control Files/Subnational parameters/Somali 2021_AHLE scenario parameters CATTLE scenarios only.xlsx
+++ b/Ethiopia Workspace/Code and Control Files/Subnational parameters/Somali 2021_AHLE scenario parameters CATTLE scenarios only.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\First Analytics\Clients\University of Liverpool\GBADs Github\GBADsLiverpool\Ethiopia Workspace\Code and Control Files\AHLE parameter tables for subnational divisions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\First Analytics\Clients\University of Liverpool\GBADs Github\GBADsLiverpool\Ethiopia Workspace\Code and Control Files\Subnational parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858F93DF-ED9A-4E2E-8BBB-9BFAE117CCC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588DBD42-1074-49B8-8231-7DD08D350D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="14292" windowWidth="23256" windowHeight="12720" xr2:uid="{7B09E95E-6D5F-461A-A5DC-5B71F2D22658}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{7B09E95E-6D5F-461A-A5DC-5B71F2D22658}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
